--- a/fuentes/contenidos/grado06/guion08/CS_06_08_CO.xlsx
+++ b/fuentes/contenidos/grado06/guion08/CS_06_08_CO.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16965" windowHeight="6345"/>
@@ -880,28 +880,16 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -948,6 +936,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1255,9 +1255,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U284"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q24" sqref="Q24:U24"/>
+      <selection pane="bottomLeft" activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1271,9 +1271,9 @@
     <col min="7" max="7" width="25.85546875" style="32" customWidth="1"/>
     <col min="8" max="8" width="10" style="30" customWidth="1"/>
     <col min="9" max="9" width="11" style="1" customWidth="1"/>
-    <col min="10" max="10" width="17.85546875" style="32" customWidth="1"/>
+    <col min="10" max="10" width="57.85546875" style="32" customWidth="1"/>
     <col min="11" max="11" width="8.7109375" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" customWidth="1"/>
+    <col min="12" max="12" width="28.5703125" customWidth="1"/>
     <col min="13" max="14" width="9.28515625" customWidth="1"/>
     <col min="15" max="15" width="27.28515625" style="1" customWidth="1"/>
     <col min="16" max="16" width="9.5703125" style="1" customWidth="1"/>
@@ -1285,94 +1285,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="20" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="55" t="s">
+      <c r="D1" s="51" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="E1" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="F1" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="52" t="s">
+      <c r="G1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="42" t="s">
+      <c r="H1" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="42" t="s">
+      <c r="I1" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="52" t="s">
+      <c r="J1" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="50" t="s">
+      <c r="K1" s="46" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="48" t="s">
+      <c r="L1" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="54" t="s">
+      <c r="M1" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="54"/>
-      <c r="O1" s="36" t="s">
+      <c r="N1" s="50"/>
+      <c r="O1" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="36" t="s">
+      <c r="P1" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="38" t="s">
+      <c r="Q1" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="40" t="s">
+      <c r="R1" s="57" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="38" t="s">
+      <c r="S1" s="55" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="40" t="s">
+      <c r="T1" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="38" t="s">
+      <c r="U1" s="55" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="20" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="47"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="49"/>
+      <c r="A2" s="43"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="45"/>
       <c r="M2" s="21" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="39"/>
-      <c r="R2" s="41"/>
-      <c r="S2" s="39"/>
-      <c r="T2" s="41"/>
-      <c r="U2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="58"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="58"/>
+      <c r="U2" s="56"/>
     </row>
     <row r="3" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
@@ -4063,6 +4063,12 @@
     <row r="284" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4077,12 +4083,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
